--- a/envio_wsp.xlsx
+++ b/envio_wsp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Programación\py\BAR\WSP_automatization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3A3DC50-9BB5-4272-AD6E-F06F658D9E42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A1B2C14-AD17-4F18-ACFD-2B384CA929FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F25A5A7C-1349-46C8-867B-773AB2AD0664}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="114">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -34,13 +34,346 @@
   </si>
   <si>
     <t>CELULAR</t>
+  </si>
+  <si>
+    <t>CORAZONES FELICES</t>
+  </si>
+  <si>
+    <t>PFA2227</t>
+  </si>
+  <si>
+    <t>SHALOM</t>
+  </si>
+  <si>
+    <t>PFA2228</t>
+  </si>
+  <si>
+    <t>RENACER</t>
+  </si>
+  <si>
+    <t>PFA2229</t>
+  </si>
+  <si>
+    <t>CARITA TRAVIESA</t>
+  </si>
+  <si>
+    <t>PFA2230</t>
+  </si>
+  <si>
+    <t>NIÑOS ALEGRES</t>
+  </si>
+  <si>
+    <t>PFA2231</t>
+  </si>
+  <si>
+    <t>NUEVO COMENZAR</t>
+  </si>
+  <si>
+    <t>PFA2232</t>
+  </si>
+  <si>
+    <t>TIA GLADYS</t>
+  </si>
+  <si>
+    <t>PFA2233</t>
+  </si>
+  <si>
+    <t>ESTRELLITA ROLDAN</t>
+  </si>
+  <si>
+    <t>PFA2234</t>
+  </si>
+  <si>
+    <t>NIÑOS CONTENTOS</t>
+  </si>
+  <si>
+    <t>PFA2235</t>
+  </si>
+  <si>
+    <t>AXEL</t>
+  </si>
+  <si>
+    <t>PFA2236</t>
+  </si>
+  <si>
+    <t>EMUNAY</t>
+  </si>
+  <si>
+    <t>PFA2237</t>
+  </si>
+  <si>
+    <t>BABY NIÑOS</t>
+  </si>
+  <si>
+    <t>PFA2238</t>
+  </si>
+  <si>
+    <t>PFA2239</t>
+  </si>
+  <si>
+    <t>LAS BENDIS</t>
+  </si>
+  <si>
+    <t>PFA2240</t>
+  </si>
+  <si>
+    <t>PIES DEZCALZOS</t>
+  </si>
+  <si>
+    <t>PFA2241</t>
+  </si>
+  <si>
+    <t>SAN CAYETANO</t>
+  </si>
+  <si>
+    <t>PFA2242</t>
+  </si>
+  <si>
+    <t>UN SOL PARA LOS CHICOS</t>
+  </si>
+  <si>
+    <t>PFA2243</t>
+  </si>
+  <si>
+    <t>CONQUISTANDO SONRISAS</t>
+  </si>
+  <si>
+    <t>PFA2244</t>
+  </si>
+  <si>
+    <t>GODOOY</t>
+  </si>
+  <si>
+    <t>PFA2245</t>
+  </si>
+  <si>
+    <t>NEREA</t>
+  </si>
+  <si>
+    <t>PFA2246</t>
+  </si>
+  <si>
+    <t>C.C.OESTE</t>
+  </si>
+  <si>
+    <t>PFA2247</t>
+  </si>
+  <si>
+    <t>PASITO A PASITO</t>
+  </si>
+  <si>
+    <t>PFA2248</t>
+  </si>
+  <si>
+    <t>CERRITO</t>
+  </si>
+  <si>
+    <t>PFA2249</t>
+  </si>
+  <si>
+    <t>JULYMILE</t>
+  </si>
+  <si>
+    <t>PFA2250</t>
+  </si>
+  <si>
+    <t>LITO</t>
+  </si>
+  <si>
+    <t>PFA2251</t>
+  </si>
+  <si>
+    <t>LA BUENA VIDA</t>
+  </si>
+  <si>
+    <t>PFA2252</t>
+  </si>
+  <si>
+    <t>PANCITA LLENA</t>
+  </si>
+  <si>
+    <t>PFA2253</t>
+  </si>
+  <si>
+    <t>ALVEAR</t>
+  </si>
+  <si>
+    <t>PFA2254</t>
+  </si>
+  <si>
+    <t>ESTRELLITA MIA</t>
+  </si>
+  <si>
+    <t>PFA0528</t>
+  </si>
+  <si>
+    <t>SAN FRANCISQUITO</t>
+  </si>
+  <si>
+    <t>PFA2256</t>
+  </si>
+  <si>
+    <t>SOL NACIENTE</t>
+  </si>
+  <si>
+    <t>PFA2257</t>
+  </si>
+  <si>
+    <t>UNION Y FUERZA</t>
+  </si>
+  <si>
+    <t>PFA2258</t>
+  </si>
+  <si>
+    <t>CONSTRUYENDO SUEÑOS</t>
+  </si>
+  <si>
+    <t>PFA2259</t>
+  </si>
+  <si>
+    <t>UNA NUEVA LUZ LOS PEQUES</t>
+  </si>
+  <si>
+    <t>PFA2260</t>
+  </si>
+  <si>
+    <t>EMUNAH</t>
+  </si>
+  <si>
+    <t>PFA2262</t>
+  </si>
+  <si>
+    <t>CATALEYA</t>
+  </si>
+  <si>
+    <t>PFA2263</t>
+  </si>
+  <si>
+    <t>CARITA DE ANGEL</t>
+  </si>
+  <si>
+    <t>PFA2264</t>
+  </si>
+  <si>
+    <t>NUEVA LUNA</t>
+  </si>
+  <si>
+    <t>PFA2265</t>
+  </si>
+  <si>
+    <t>NAAN QOM</t>
+  </si>
+  <si>
+    <t>PFA2266</t>
+  </si>
+  <si>
+    <t>NUEVO HORIZONTE</t>
+  </si>
+  <si>
+    <t>PFA2267</t>
+  </si>
+  <si>
+    <t>LOS NIÑOS</t>
+  </si>
+  <si>
+    <t>PFA2268</t>
+  </si>
+  <si>
+    <t>VILLA CARIÑITO</t>
+  </si>
+  <si>
+    <t>PFA2269</t>
+  </si>
+  <si>
+    <t>DALAGAY</t>
+  </si>
+  <si>
+    <t>PFA2270</t>
+  </si>
+  <si>
+    <t>TACUARITA</t>
+  </si>
+  <si>
+    <t>PFA2271</t>
+  </si>
+  <si>
+    <t>LA LAGUNITA</t>
+  </si>
+  <si>
+    <t>PFA2272</t>
+  </si>
+  <si>
+    <t>cc Barrio Larrea</t>
+  </si>
+  <si>
+    <t>PFA2273</t>
+  </si>
+  <si>
+    <t>Merendero MBT</t>
+  </si>
+  <si>
+    <t>PFA2078</t>
+  </si>
+  <si>
+    <t>comedor Berrutti</t>
+  </si>
+  <si>
+    <t>PFA2152</t>
+  </si>
+  <si>
+    <t>Merendero MTR</t>
+  </si>
+  <si>
+    <t>PFA2274</t>
+  </si>
+  <si>
+    <t>Comedor Barrio moreno</t>
+  </si>
+  <si>
+    <t>PFA2275</t>
+  </si>
+  <si>
+    <t>CC Barrio Lagunita</t>
+  </si>
+  <si>
+    <t>PFA2276</t>
+  </si>
+  <si>
+    <t>Comedor Naala</t>
+  </si>
+  <si>
+    <t>PFA2277</t>
+  </si>
+  <si>
+    <t>cc manitos solidarias</t>
+  </si>
+  <si>
+    <t>PFA2279</t>
+  </si>
+  <si>
+    <t>CC un nuevo amanecer</t>
+  </si>
+  <si>
+    <t>PFA2280</t>
+  </si>
+  <si>
+    <t>Merendero El reino de los niños</t>
+  </si>
+  <si>
+    <t>PFA1184</t>
+  </si>
+  <si>
+    <t>COMEDOR EMANUEL</t>
+  </si>
+  <si>
+    <t>3415 21-1293</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -70,6 +403,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -85,7 +449,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -108,11 +472,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -121,6 +515,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -556,10 +974,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9FB396-018E-4436-A08F-3CD49B9384CA}">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -570,7 +988,7 @@
     <col min="4" max="4" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="19.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -581,34 +999,639 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="6">
+        <v>3412121860</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="6">
+        <v>3415452499</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" s="6">
+        <v>3413958060</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3416570182</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3413755118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3413099741</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="6">
+        <v>3417522172</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="6">
+        <v>3412601554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="6">
+        <v>3413098491</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3413542817</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="6">
+        <v>3413398234</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="6">
+        <v>3413308236</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="6">
+        <v>3416891485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="6">
+        <v>3413607440</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" s="6">
+        <v>3415107746</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="6">
+        <v>3416767241</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3415821187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="6">
+        <v>3413712660</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" s="6">
+        <v>3735628767</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="6">
+        <v>3412609162</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" s="6">
+        <v>3412110547</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="C23" s="6">
+        <v>3416579845</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B24" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="6">
+        <v>3416863538</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C25" s="6">
+        <v>3416283874</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="6">
+        <v>3415910684</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>54</v>
+      </c>
+      <c r="C27" s="6">
+        <v>3413589288</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="6">
+        <v>3415802979</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="6">
+        <v>3416603016</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="5">
+        <v>3413810306</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="6">
+        <v>3412656041</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="6">
+        <v>3416116205</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="B33" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="6">
+        <v>3415908080</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="5">
+        <v>3412244350</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="C35" s="5">
+        <v>3413654972</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="C36" s="5">
+        <v>3416665426</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="C37" s="10">
+        <v>3412689430</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B38" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="C38" s="10">
+        <v>3412689430</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C39" s="10">
+        <v>3412689430</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="B40" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C40" s="10">
+        <v>3412689430</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C41" s="10">
+        <v>3412689430</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B42" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="C42" s="10">
+        <v>3412689430</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="B43" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C43" s="10">
+        <v>3412689430</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="B44" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="C44" s="10">
+        <v>3412689430</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C45" s="10">
+        <v>3412689430</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="B46" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="C46" s="8">
+        <v>3413059776</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="B47" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C47" s="8">
+        <v>3416869565</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="B48" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C48" s="8">
+        <v>3415196010</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="B49" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" s="8">
+        <v>3415213121</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50" s="8">
+        <v>3412659867</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C51" s="8">
+        <v>3412570818</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52" s="8">
+        <v>3417029982</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="B53" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="8">
+        <v>3416557333</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C54" s="8">
+        <v>3416282566</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="C55" s="8">
+        <v>3413837516</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B56" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="C56" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="11" priority="42"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="8" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="7" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="51"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="6" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="57"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D1:D1048576 B1">
-    <cfRule type="duplicateValues" dxfId="4" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="3" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="58"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="2" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="2" priority="59"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="1" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="0" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/envio_wsp.xlsx
+++ b/envio_wsp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Programación\py\BAR\WSP_automatization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{274935A3-1193-4A3D-96B1-E049B3ACCD88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B07337-E6F9-482D-9245-056049AE96DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F25A5A7C-1349-46C8-867B-773AB2AD0664}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -46,9 +46,6 @@
   </si>
   <si>
     <t>RAMOS DE SUEÑOS BARRIO ITATÍ</t>
-  </si>
-  <si>
-    <t xml:space="preserve">341 3188138 </t>
   </si>
 </sst>
 </file>
@@ -574,7 +571,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -604,7 +601,7 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>3415770124</v>
+        <v>3416916849</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
@@ -614,8 +611,8 @@
       <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" t="s">
-        <v>7</v>
+      <c r="C3">
+        <v>341416916849</v>
       </c>
     </row>
   </sheetData>

--- a/envio_wsp.xlsx
+++ b/envio_wsp.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Programación\py\BAR\WSP_automatization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98B07337-E6F9-482D-9245-056049AE96DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DEBF37-9566-411F-82CA-79B6FAD3E755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F25A5A7C-1349-46C8-867B-773AB2AD0664}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>CÓDIGO</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>RAMOS DE SUEÑOS BARRIO ITATÍ</t>
+  </si>
+  <si>
+    <t>jhj</t>
+  </si>
+  <si>
+    <t>ppook</t>
   </si>
 </sst>
 </file>
@@ -568,10 +574,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9FB396-018E-4436-A08F-3CD49B9384CA}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -612,7 +618,18 @@
         <v>6</v>
       </c>
       <c r="C3">
-        <v>341416916849</v>
+        <v>3416916849</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="3">
+        <v>9998000000000</v>
       </c>
     </row>
   </sheetData>

--- a/envio_wsp.xlsx
+++ b/envio_wsp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Programación\py\BAR\WSP_automatization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31DEBF37-9566-411F-82CA-79B6FAD3E755}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9F1EAF-FB3F-456B-A903-1708BD151CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F25A5A7C-1349-46C8-867B-773AB2AD0664}"/>
   </bookViews>
@@ -25,15 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
     <t>CÓDIGO</t>
-  </si>
-  <si>
-    <t>NOMBRE OB</t>
-  </si>
-  <si>
-    <t>CELULAR</t>
   </si>
   <si>
     <t>PFA0345</t>
@@ -42,16 +36,16 @@
     <t>ASOCIACIÓN CIVIL PRESENTE Y FUTURO</t>
   </si>
   <si>
-    <t>PFA0348</t>
-  </si>
-  <si>
-    <t>RAMOS DE SUEÑOS BARRIO ITATÍ</t>
-  </si>
-  <si>
     <t>jhj</t>
   </si>
   <si>
     <t>ppook</t>
+  </si>
+  <si>
+    <t>celular</t>
+  </si>
+  <si>
+    <t>OB</t>
   </si>
 </sst>
 </file>
@@ -143,7 +137,27 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -574,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D9FB396-018E-4436-A08F-3CD49B9384CA}">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -593,65 +607,93 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C2">
         <v>3416916849</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="3">
+        <v>9998000000000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
         <v>3416916849</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="3">
+    <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>3416916849</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="3">
         <v>9998000000000</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A1">
-    <cfRule type="duplicateValues" dxfId="11" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="10" priority="50"/>
-    <cfRule type="duplicateValues" dxfId="9" priority="54"/>
-    <cfRule type="duplicateValues" dxfId="8" priority="58"/>
+    <cfRule type="duplicateValues" dxfId="13" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="12" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="11" priority="56"/>
+    <cfRule type="duplicateValues" dxfId="10" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1">
-    <cfRule type="duplicateValues" dxfId="7" priority="46"/>
-    <cfRule type="duplicateValues" dxfId="6" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="5" priority="62"/>
+    <cfRule type="duplicateValues" dxfId="9" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="64"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1">
-    <cfRule type="duplicateValues" dxfId="4" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="3" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="2" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="5" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="4" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="65"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:D1048576 A2:A3 D1 B1">
-    <cfRule type="duplicateValues" dxfId="0" priority="44"/>
+  <conditionalFormatting sqref="D4:D1048576 A2 D1 B1">
+    <cfRule type="duplicateValues" dxfId="2" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A5">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/envio_wsp.xlsx
+++ b/envio_wsp.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Programación\py\BAR\WSP_automatization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A9F1EAF-FB3F-456B-A903-1708BD151CC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8DF9DA6-2F3E-4E7A-A201-C3A0BAA2CDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{F25A5A7C-1349-46C8-867B-773AB2AD0664}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="7">
   <si>
-    <t>CÓDIGO</t>
-  </si>
-  <si>
     <t>PFA0345</t>
   </si>
   <si>
@@ -42,10 +39,13 @@
     <t>ppook</t>
   </si>
   <si>
-    <t>celular</t>
+    <t>CELULAR</t>
   </si>
   <si>
-    <t>OB</t>
+    <t>nombre_OB</t>
+  </si>
+  <si>
+    <t>LINK</t>
   </si>
 </sst>
 </file>
@@ -591,7 +591,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -604,21 +604,21 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
       </c>
       <c r="C2">
         <v>3416916849</v>
@@ -626,10 +626,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" s="3">
         <v>9998000000000</v>
@@ -637,10 +637,10 @@
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" t="s">
         <v>1</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
       </c>
       <c r="C4">
         <v>3416916849</v>
@@ -648,10 +648,10 @@
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" t="s">
         <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>2</v>
       </c>
       <c r="C5">
         <v>3416916849</v>
@@ -659,10 +659,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C6" s="3">
         <v>9998000000000</v>
